--- a/D3DFramework/D3DFramework/Data/Item/item.xlsx
+++ b/D3DFramework/D3DFramework/Data/Item/item.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJH\Documents\Dev\LOL-Portfolio\D3DFramework\D3DFramework\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACD985-1D2E-41E0-8D9B-6AA1511E608E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0946248-68C8-4BDF-822B-D16765D1ACE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32775" yWindow="960" windowWidth="20895" windowHeight="13620" xr2:uid="{91AB3F9C-7FAB-4CCA-969D-01E3EC58D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$206</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3121,18 +3124,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3156,10 +3153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3479,8 +3476,8 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7964,6 +7961,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H206" xr:uid="{317D4681-F7D5-4E2E-A7E3-FE5D74806FAC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/D3DFramework/D3DFramework/Data/Item/item.xlsx
+++ b/D3DFramework/D3DFramework/Data/Item/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJH\Documents\Dev\LOL-Portfolio\D3DFramework\D3DFramework\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0946248-68C8-4BDF-822B-D16765D1ACE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22CE244-B8B5-4B28-BABF-9E4968DDB9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32775" yWindow="960" windowWidth="20895" windowHeight="13620" xr2:uid="{91AB3F9C-7FAB-4CCA-969D-01E3EC58D477}"/>
+    <workbookView xWindow="32340" yWindow="1185" windowWidth="20490" windowHeight="13620" xr2:uid="{91AB3F9C-7FAB-4CCA-969D-01E3EC58D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>1036_class_t1_longsword</t>
   </si>
   <si>
-    <t>1037_class_t1_pickaxe</t>
-  </si>
-  <si>
     <t>1038_marksman_t1_bfsword</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>3056_ohmwrecker</t>
   </si>
   <si>
-    <t>3057_fighter_t2_sheen</t>
-  </si>
-  <si>
     <t>3065_tank_t3_spiritvisage</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>3076_tank_t2_bramblevest</t>
   </si>
   <si>
-    <t>3077_fighter_t2_tiamat</t>
-  </si>
-  <si>
     <t>3082_tank_t2_wardensmail</t>
   </si>
   <si>
@@ -418,9 +409,6 @@
     <t>3051_fighter_t2_axeofavarosa</t>
   </si>
   <si>
-    <t>3070_all_t1_tearofthegoddess</t>
-  </si>
-  <si>
     <t>3071_fighter_t3_blackcleaver</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
   </si>
   <si>
     <t>3190_enchanter_t4_locketofironsolari</t>
-  </si>
-  <si>
-    <t>3191_battlemage_t2_seekersarmguard</t>
   </si>
   <si>
     <t>3193_tank_t3_gargoylestoneplate</t>
@@ -2658,12 +2643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문력 +80, 체력 +250, 마나 +600, 스킬 가속 +20
-사용 시 - 빙결: 원뿔 범위 내의 적들에게 125 + 주문력의 35%에[28] 해당하는 마법 피해를 입히고 1.5초 동안 65% 둔화시킵니다. 범위 중앙의 적들은 속박됩니다. (재사용 대기시간 20초)
-신화급 지속 효과: 다른 모든 전설급 아이템에 주문력 +15를 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법공학 교류 발전기(1050) + 루비 수정(400) + 방출의 마법봉(850) + 900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3100,6 +3079,32 @@
   </si>
   <si>
     <t>장신구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3077_fighter_t2_tiamat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1037_class_t1_pickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3070_all_t1_tearofthegoddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3057_fighter_t2_sheen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3191_battlemage_t2_seekersarmguard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문력 +80, 체력 +250, 마나 +600, 스킬 가속 +20
+사용 시 - 빙결: 원뿔 범위 내의 적들에게 125 + 주문력의 35%에 해당하는 마법 피해를 입히고 1.5초 동안 65% 둔화시킵니다. 범위 중앙의 적들은 속박됩니다. (재사용 대기시간 20초)
+신화급 지속 효과: 다른 모든 전설급 아이템에 주문력 +15를 부여합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3476,8 +3481,8 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3493,28 +3498,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3525,16 +3530,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E2">
         <v>300</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3545,16 +3550,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3562,19 +3567,19 @@
         <v>1006</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E4">
         <v>150</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3585,19 +3590,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E5">
         <v>900</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3608,16 +3613,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E6">
         <v>600</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3628,16 +3633,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E7">
         <v>850</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3645,19 +3650,19 @@
         <v>1027</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E8">
         <v>350</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3665,19 +3670,19 @@
         <v>1028</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E9">
         <v>400</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3685,19 +3690,19 @@
         <v>1029</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E10">
         <v>300</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -3705,22 +3710,22 @@
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E11">
         <v>800</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3728,19 +3733,19 @@
         <v>1033</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E12">
         <v>450</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="313.5" x14ac:dyDescent="0.3">
@@ -3751,16 +3756,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E13">
         <v>350</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3771,16 +3776,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E14">
         <v>350</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3788,19 +3793,19 @@
         <v>1037</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>737</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E15">
         <v>875</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3808,19 +3813,19 @@
         <v>1038</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E16">
         <v>1300</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="280.5" x14ac:dyDescent="0.3">
@@ -3828,19 +3833,19 @@
         <v>1039</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E17">
         <v>350</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3848,19 +3853,19 @@
         <v>1042</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E18">
         <v>300</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3868,22 +3873,22 @@
         <v>1043</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3891,19 +3896,19 @@
         <v>1052</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E20">
         <v>435</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3911,22 +3916,22 @@
         <v>1053</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E21">
         <v>900</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
@@ -3934,20 +3939,20 @@
         <v>1054</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E22" s="2">
         <v>450</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3955,19 +3960,19 @@
         <v>1055</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E23">
         <v>450</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -3975,19 +3980,19 @@
         <v>1056</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E24">
         <v>400</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3998,19 +4003,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E25">
         <v>900</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4018,19 +4023,19 @@
         <v>1058</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E26">
         <v>1250</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -4038,19 +4043,19 @@
         <v>1082</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>350</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4058,19 +4063,19 @@
         <v>1083</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E28">
         <v>450</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4078,7 +4083,7 @@
         <v>1504</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4086,7 +4091,7 @@
         <v>1505</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4094,7 +4099,7 @@
         <v>1507</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4102,7 +4107,7 @@
         <v>1508</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4110,7 +4115,7 @@
         <v>1509</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4118,7 +4123,7 @@
         <v>1510</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4126,7 +4131,7 @@
         <v>1511</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4134,7 +4139,7 @@
         <v>1512</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4145,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D37" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E37">
         <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -4165,22 +4170,22 @@
         <v>2010</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D38" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E38" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4188,22 +4193,22 @@
         <v>2015</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E39">
         <v>700</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4211,22 +4216,22 @@
         <v>2031</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D40" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E40">
         <v>150</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -4234,22 +4239,22 @@
         <v>2033</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D41" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E41">
         <v>500</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -4257,22 +4262,22 @@
         <v>2051</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D42" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E42">
         <v>950</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4280,13 +4285,13 @@
         <v>2052</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -4294,22 +4299,22 @@
         <v>2055</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D44" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E44">
         <v>75</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -4317,22 +4322,22 @@
         <v>2065</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E45">
         <v>2500</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -4340,19 +4345,19 @@
         <v>2138</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D46" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E46">
         <v>500</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -4360,22 +4365,22 @@
         <v>2139</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D47" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E47">
         <v>500</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -4383,22 +4388,22 @@
         <v>2140</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E48">
         <v>500</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -4409,19 +4414,19 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D49" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E49" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4429,19 +4434,19 @@
         <v>2419</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E50">
         <v>650</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4449,22 +4454,22 @@
         <v>2422</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4472,19 +4477,19 @@
         <v>2424</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4492,22 +4497,22 @@
         <v>3001</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D53" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E53">
         <v>2700</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -4515,22 +4520,22 @@
         <v>3003</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D54" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E54">
         <v>3000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -4538,22 +4543,22 @@
         <v>3004</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E55">
         <v>2900</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4561,22 +4566,22 @@
         <v>3006</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E56">
         <v>1100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4584,22 +4589,22 @@
         <v>3009</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E57">
         <v>900</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -4607,22 +4612,22 @@
         <v>3011</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D58" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E58">
         <v>2300</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4630,22 +4635,22 @@
         <v>3020</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D59" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E59">
         <v>1100</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4656,19 +4661,19 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E60">
         <v>900</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -4676,22 +4681,22 @@
         <v>3026</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E61">
         <v>2800</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -4699,22 +4704,22 @@
         <v>3031</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E62">
         <v>3400</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -4722,22 +4727,22 @@
         <v>3033</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E63">
         <v>2500</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4745,22 +4750,22 @@
         <v>3035</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E64">
         <v>1450</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4768,22 +4773,22 @@
         <v>3036</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E65">
         <v>2900</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -4791,22 +4796,22 @@
         <v>3041</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E66">
         <v>1600</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -4814,22 +4819,22 @@
         <v>3042</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E67" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -4837,22 +4842,22 @@
         <v>3044</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E68">
         <v>1100</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -4860,22 +4865,22 @@
         <v>3046</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E69">
         <v>2600</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4883,22 +4888,22 @@
         <v>3047</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D70" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E70">
         <v>1100</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -4906,22 +4911,22 @@
         <v>3048</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E71" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -4929,22 +4934,22 @@
         <v>3050</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E72">
         <v>2400</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4952,22 +4957,22 @@
         <v>3051</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D73" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E73">
         <v>1100</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="198" x14ac:dyDescent="0.3">
@@ -4975,22 +4980,22 @@
         <v>3053</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E74">
         <v>3100</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4998,7 +5003,7 @@
         <v>3056</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5006,19 +5011,19 @@
         <v>3057</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>739</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E76">
         <v>700</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5026,22 +5031,22 @@
         <v>3065</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D77" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E77">
         <v>2900</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5049,22 +5054,22 @@
         <v>3066</v>
       </c>
       <c r="B78" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E78">
         <v>800</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5072,22 +5077,22 @@
         <v>3067</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E79">
         <v>800</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="198" x14ac:dyDescent="0.3">
@@ -5095,22 +5100,22 @@
         <v>3068</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E80">
         <v>3200</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -5118,19 +5123,19 @@
         <v>3070</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>738</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E81">
         <v>400</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5138,22 +5143,22 @@
         <v>3071</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E82">
         <v>3100</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5161,22 +5166,22 @@
         <v>3072</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E83">
         <v>3400</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5184,22 +5189,22 @@
         <v>3074</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E84">
         <v>3300</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -5207,22 +5212,22 @@
         <v>3075</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E85">
         <v>2700</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5230,22 +5235,22 @@
         <v>3076</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E86">
         <v>800</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5253,22 +5258,22 @@
         <v>3077</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>736</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E87">
         <v>1200</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -5276,22 +5281,22 @@
         <v>3078</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D88" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E88">
         <v>3333</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5299,22 +5304,22 @@
         <v>3082</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D89" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E89">
         <v>1000</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5322,22 +5327,22 @@
         <v>3083</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E90">
         <v>3000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5345,22 +5350,22 @@
         <v>3085</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D91" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E91">
         <v>2600</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5368,22 +5373,22 @@
         <v>3086</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E92">
         <v>1050</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5391,22 +5396,22 @@
         <v>3089</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D93" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E93">
         <v>3600</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5414,22 +5419,22 @@
         <v>3091</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E94">
         <v>3100</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5437,22 +5442,22 @@
         <v>3094</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D95" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E95">
         <v>2500</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5460,22 +5465,22 @@
         <v>3095</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D96" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E96">
         <v>2700</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5483,22 +5488,22 @@
         <v>3100</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E97">
         <v>3000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5506,22 +5511,22 @@
         <v>3102</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D98" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E98">
         <v>2600</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5529,22 +5534,22 @@
         <v>3105</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E99">
         <v>1500</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -5552,22 +5557,22 @@
         <v>3107</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E100">
         <v>2300</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5578,19 +5583,19 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E101">
         <v>900</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -5598,22 +5603,22 @@
         <v>3109</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E102">
         <v>2300</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5621,22 +5626,22 @@
         <v>3110</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E103">
         <v>2500</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5644,22 +5649,22 @@
         <v>3111</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E104">
         <v>1100</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5667,22 +5672,22 @@
         <v>3112</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D105" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E105">
         <v>950</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5690,22 +5695,22 @@
         <v>3113</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E106">
         <v>850</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5716,19 +5721,19 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D107" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E107">
         <v>800</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5736,22 +5741,22 @@
         <v>3115</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D108" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E108">
         <v>3000</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5759,22 +5764,22 @@
         <v>3116</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E109">
         <v>3000</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5782,22 +5787,22 @@
         <v>3117</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D110" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E110">
         <v>1000</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5805,22 +5810,22 @@
         <v>3123</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E111">
         <v>800</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -5828,22 +5833,22 @@
         <v>3124</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E112">
         <v>2800</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5851,22 +5856,22 @@
         <v>3133</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C113" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D113" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E113">
         <v>1100</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5874,22 +5879,22 @@
         <v>3134</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D114" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E114">
         <v>1100</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5897,22 +5902,22 @@
         <v>3135</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E115">
         <v>2700</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -5920,22 +5925,22 @@
         <v>3139</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D116" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E116">
         <v>3000</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5943,22 +5948,22 @@
         <v>3140</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D117" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E117">
         <v>1300</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -5966,22 +5971,22 @@
         <v>3142</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D118" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E118">
         <v>3000</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -5989,22 +5994,22 @@
         <v>3143</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D119" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E119">
         <v>2700</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -6012,22 +6017,22 @@
         <v>3145</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D120" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E120">
         <v>1050</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -6035,22 +6040,22 @@
         <v>3152</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E121">
         <v>3200</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -6058,22 +6063,22 @@
         <v>3153</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E122">
         <v>3200</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -6084,19 +6089,19 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E123">
         <v>1300</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -6104,22 +6109,22 @@
         <v>3156</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D124" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E124">
         <v>2800</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -6127,22 +6132,22 @@
         <v>3157</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D125" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E125">
         <v>2600</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -6150,22 +6155,22 @@
         <v>3158</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E126">
         <v>900</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -6173,22 +6178,22 @@
         <v>3165</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D127" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E127">
         <v>2500</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -6196,22 +6201,22 @@
         <v>3170</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D128" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E128">
         <v>950</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -6219,22 +6224,22 @@
         <v>3179</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E129">
         <v>2600</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -6242,22 +6247,22 @@
         <v>3181</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D130" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E130">
         <v>3000</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -6265,22 +6270,22 @@
         <v>3184</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D131" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E131">
         <v>950</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="165" x14ac:dyDescent="0.3">
@@ -6288,22 +6293,22 @@
         <v>3190</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D132" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E132">
         <v>2500</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -6311,22 +6316,22 @@
         <v>3191</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>740</v>
       </c>
       <c r="C133" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D133" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E133">
         <v>1000</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="132" x14ac:dyDescent="0.3">
@@ -6334,22 +6339,22 @@
         <v>3193</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D134" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E134">
         <v>3300</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -6357,22 +6362,22 @@
         <v>3211</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D135" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E135">
         <v>1250</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -6380,22 +6385,22 @@
         <v>3222</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E136">
         <v>2300</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -6406,16 +6411,16 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D137" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -6423,19 +6428,19 @@
         <v>3363</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C138" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D138" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -6443,19 +6448,19 @@
         <v>3364</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D139" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
@@ -6463,22 +6468,22 @@
         <v>3504</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D140" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E140">
         <v>2300</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -6486,22 +6491,22 @@
         <v>3508</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D141" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E141">
         <v>2900</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -6509,22 +6514,22 @@
         <v>3513</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D142" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E142" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -6532,25 +6537,25 @@
         <v>3600</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D143" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E143" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H143" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
@@ -6558,22 +6563,22 @@
         <v>3742</v>
       </c>
       <c r="B144" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D144" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E144">
         <v>2900</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -6581,22 +6586,22 @@
         <v>3744</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D145" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E145">
         <v>2300</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -6604,22 +6609,22 @@
         <v>3748</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D146" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E146">
         <v>3300</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -6627,22 +6632,22 @@
         <v>3801</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D147" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E147">
         <v>650</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -6650,22 +6655,22 @@
         <v>3802</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D148" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E148">
         <v>1300</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -6673,22 +6678,22 @@
         <v>3814</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D149" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E149">
         <v>2900</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -6696,19 +6701,19 @@
         <v>3850</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D150" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E150">
         <v>400</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="198" x14ac:dyDescent="0.3">
@@ -6716,19 +6721,19 @@
         <v>3851</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C151" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E151" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -6736,19 +6741,19 @@
         <v>3853</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D152" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E152" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
@@ -6756,19 +6761,19 @@
         <v>3854</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E153">
         <v>400</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="231" x14ac:dyDescent="0.3">
@@ -6776,19 +6781,19 @@
         <v>3855</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C154" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E154" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -6796,19 +6801,19 @@
         <v>3857</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C155" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D155" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E155" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
@@ -6816,19 +6821,19 @@
         <v>3858</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C156" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D156" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E156">
         <v>400</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="231" x14ac:dyDescent="0.3">
@@ -6839,16 +6844,16 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D157" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E157" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -6856,19 +6861,19 @@
         <v>3860</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E158" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -6876,19 +6881,19 @@
         <v>3862</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D159" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E159">
         <v>400</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="198" x14ac:dyDescent="0.3">
@@ -6896,19 +6901,19 @@
         <v>3863</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E160" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
@@ -6916,19 +6921,19 @@
         <v>3864</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D161" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E161" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -6936,22 +6941,22 @@
         <v>3901</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D162" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E162">
         <v>500</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H162" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -6959,22 +6964,22 @@
         <v>3902</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D163" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E163">
         <v>500</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="H163" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -6982,22 +6987,22 @@
         <v>3903</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C164" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D164" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E164">
         <v>500</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H164" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7005,22 +7010,22 @@
         <v>3916</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D165" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E165">
         <v>800</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
@@ -7028,22 +7033,22 @@
         <v>4005</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D166" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E166">
         <v>2500</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7054,19 +7059,19 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D167" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E167">
         <v>2900</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
@@ -7074,22 +7079,22 @@
         <v>4403</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C168" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D168" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E168">
         <v>7437</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
@@ -7097,22 +7102,22 @@
         <v>4628</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D169" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E169">
         <v>3000</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7120,22 +7125,22 @@
         <v>4629</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D170" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E170">
         <v>3000</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -7143,22 +7148,22 @@
         <v>4630</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D171" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E171">
         <v>1250</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -7166,22 +7171,22 @@
         <v>4632</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D172" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E172">
         <v>1000</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
@@ -7189,22 +7194,22 @@
         <v>4633</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D173" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E173">
         <v>3200</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -7212,22 +7217,22 @@
         <v>4635</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D174" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E174">
         <v>1300</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -7235,22 +7240,22 @@
         <v>4636</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C175" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D175" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E175">
         <v>3200</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -7258,22 +7263,22 @@
         <v>4637</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D176" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E176">
         <v>3000</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -7281,19 +7286,19 @@
         <v>4638</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C177" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D177" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -7301,19 +7306,19 @@
         <v>4641</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C178" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D178" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E178">
         <v>1100</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -7321,22 +7326,22 @@
         <v>4642</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C179" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D179" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E179">
         <v>950</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -7344,22 +7349,22 @@
         <v>4643</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C180" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D180" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E180">
         <v>2300</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -7367,22 +7372,22 @@
         <v>6029</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D181" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E181">
         <v>1100</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -7390,22 +7395,22 @@
         <v>6035</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C182" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D182" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E182">
         <v>3000</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -7413,22 +7418,22 @@
         <v>6333</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C183" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D183" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E183">
         <v>3100</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -7436,22 +7441,22 @@
         <v>6609</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C184" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D184" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E184">
         <v>2600</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -7459,22 +7464,22 @@
         <v>6617</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C185" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D185" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E185">
         <v>2500</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -7482,22 +7487,22 @@
         <v>6630</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C186" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D186" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E186">
         <v>3300</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -7505,22 +7510,22 @@
         <v>6631</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C187" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D187" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E187">
         <v>3300</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -7528,22 +7533,22 @@
         <v>6632</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D188" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E188">
         <v>3300</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -7551,22 +7556,22 @@
         <v>6653</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E189">
         <v>3400</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -7577,19 +7582,19 @@
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D190" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E190">
         <v>3400</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -7597,22 +7602,22 @@
         <v>6656</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D191" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E191">
         <v>3400</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -7620,22 +7625,22 @@
         <v>6660</v>
       </c>
       <c r="B192" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C192" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D192" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E192">
         <v>1100</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -7643,22 +7648,22 @@
         <v>6662</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C193" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D193" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E193">
         <v>2800</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="198" x14ac:dyDescent="0.3">
@@ -7666,22 +7671,22 @@
         <v>6664</v>
       </c>
       <c r="B194" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D194" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E194">
         <v>2800</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -7689,22 +7694,22 @@
         <v>6670</v>
       </c>
       <c r="B195" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C195" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D195" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E195">
         <v>1300</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -7715,19 +7720,19 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D196" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E196">
         <v>3400</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -7735,22 +7740,22 @@
         <v>6672</v>
       </c>
       <c r="B197" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D197" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E197">
         <v>3400</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -7758,22 +7763,22 @@
         <v>6673</v>
       </c>
       <c r="B198" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C198" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D198" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E198">
         <v>3400</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -7781,22 +7786,22 @@
         <v>6675</v>
       </c>
       <c r="B199" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D199" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E199">
         <v>3400</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -7804,22 +7809,22 @@
         <v>6676</v>
       </c>
       <c r="B200" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D200" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E200">
         <v>3000</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -7830,19 +7835,19 @@
         <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D201" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E201">
         <v>800</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -7850,22 +7855,22 @@
         <v>6691</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C202" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D202" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E202">
         <v>3200</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -7873,22 +7878,22 @@
         <v>6692</v>
       </c>
       <c r="B203" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C203" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D203" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E203">
         <v>3200</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -7896,22 +7901,22 @@
         <v>6693</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C204" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D204" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E204">
         <v>3200</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -7919,22 +7924,22 @@
         <v>6694</v>
       </c>
       <c r="B205" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C205" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D205" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E205">
         <v>3400</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -7942,22 +7947,22 @@
         <v>6695</v>
       </c>
       <c r="B206" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C206" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D206" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E206">
         <v>2600</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
